--- a/RandomSearch.xlsx
+++ b/RandomSearch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunom\Desktop\AA2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98285523-2B7D-4357-BCDC-916311092FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E61FE4-A15C-4D96-8100-E06C345BDFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{9D9DBB52-E1E6-441F-994F-BA114826697E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{9D9DBB52-E1E6-441F-994F-BA114826697E}"/>
   </bookViews>
   <sheets>
     <sheet name="RandomSearch100" sheetId="7" r:id="rId1"/>
@@ -1762,21 +1762,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1795,7 +1789,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1807,7 +1801,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -13549,8 +13543,8 @@
     <tableColumn id="5" xr3:uid="{57B83D3D-FBAF-457B-9424-4069E559F7A9}" uniqueName="5" name="Divisions" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{E9134886-EC13-4869-9A73-E9617AF27E57}" uniqueName="6" name="Additions" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{DD2BAECD-3DF9-47CD-AA88-1E3003A62239}" uniqueName="7" name="Solutions" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{5C8C9414-4D67-4775-B32C-2F9FF25CAA4E}" uniqueName="8" name="Time" queryTableFieldId="8" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{9510F689-31F0-49D0-B2D6-68ACC0FFBF27}" uniqueName="9" name="resposta" queryTableFieldId="9" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{5C8C9414-4D67-4775-B32C-2F9FF25CAA4E}" uniqueName="8" name="Time" queryTableFieldId="8" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{9510F689-31F0-49D0-B2D6-68ACC0FFBF27}" uniqueName="9" name="resposta" queryTableFieldId="9" dataDxfId="11"/>
     <tableColumn id="10" xr3:uid="{DF719C01-A6A6-45E2-8EB6-41A31F2FCF30}" uniqueName="10" name="peso" queryTableFieldId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13568,8 +13562,8 @@
     <tableColumn id="5" xr3:uid="{5C6D78A7-F7AD-4DA1-92F0-8376B0257213}" uniqueName="5" name="Divisions" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{42672E32-5F5A-4015-9D7F-A0C9A9C0D8AB}" uniqueName="6" name="Additions" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{3F002AB1-0123-4C7F-9B66-637CD3B0D6AA}" uniqueName="7" name="Solutions" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{A0C4EBA9-B968-4219-BD4A-53261D6F7E92}" uniqueName="8" name="Time" queryTableFieldId="8" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{5CE659B7-2A24-407A-A13F-D26F1A282A07}" uniqueName="9" name="resposta" queryTableFieldId="9" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{A0C4EBA9-B968-4219-BD4A-53261D6F7E92}" uniqueName="8" name="Time" queryTableFieldId="8" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{5CE659B7-2A24-407A-A13F-D26F1A282A07}" uniqueName="9" name="resposta" queryTableFieldId="9" dataDxfId="9"/>
     <tableColumn id="10" xr3:uid="{13ED2BC6-B874-44EA-B75B-69BF4F373983}" uniqueName="10" name="peso" queryTableFieldId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13587,8 +13581,8 @@
     <tableColumn id="5" xr3:uid="{948A8346-DF22-4708-96F2-15174BF2175E}" uniqueName="5" name="Divisions" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{2B6DA03F-6ED2-46BD-86DC-D5BD43BBA4E9}" uniqueName="6" name="Additions" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{B251626C-D06F-40E1-8777-150714DC7B3E}" uniqueName="7" name="Solutions" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{D2439F72-C581-40F9-84F0-6DAA1F24F38A}" uniqueName="8" name="Time" queryTableFieldId="8" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{10EFE191-C313-422E-9E39-A13B6A1CD773}" uniqueName="9" name="resposta" queryTableFieldId="9" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{D2439F72-C581-40F9-84F0-6DAA1F24F38A}" uniqueName="8" name="Time" queryTableFieldId="8" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{10EFE191-C313-422E-9E39-A13B6A1CD773}" uniqueName="9" name="resposta" queryTableFieldId="9" dataDxfId="7"/>
     <tableColumn id="10" xr3:uid="{6B07924F-D3BC-46DA-B6F8-4B2E6709B878}" uniqueName="10" name="peso" queryTableFieldId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13606,8 +13600,8 @@
     <tableColumn id="5" xr3:uid="{9A7B87C2-63E6-4B39-A661-129053B28D9F}" uniqueName="5" name="Divisions" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{A80FA801-C2FC-4CC5-A1CA-D10AA01B244E}" uniqueName="6" name="Additions" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{2BE67BD4-179A-4240-B2CE-91CF7179EB12}" uniqueName="7" name="Solutions" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{2864030E-98B6-4B77-9AB3-364C618AEF1B}" uniqueName="8" name="Time" queryTableFieldId="8" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{6DCB1713-3693-4CCD-9249-599964B5B68A}" uniqueName="9" name="resposta" queryTableFieldId="9" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{2864030E-98B6-4B77-9AB3-364C618AEF1B}" uniqueName="8" name="Time" queryTableFieldId="8" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{6DCB1713-3693-4CCD-9249-599964B5B68A}" uniqueName="9" name="resposta" queryTableFieldId="9" dataDxfId="5"/>
     <tableColumn id="10" xr3:uid="{35042A3C-3F4F-4410-B74F-F6731A526F57}" uniqueName="10" name="peso" queryTableFieldId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13620,13 +13614,13 @@
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{250F2452-F845-40A4-AD98-A707BA7BCB67}" uniqueName="1" name="vertices" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{CCE33C0B-80A9-4607-81C0-B58357544B04}" uniqueName="2" name="edges" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{A0077AFC-FF75-4BC3-A7D2-D99C8AEB85CE}" uniqueName="3" name="Density" queryTableFieldId="3" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{A0077AFC-FF75-4BC3-A7D2-D99C8AEB85CE}" uniqueName="3" name="Density" queryTableFieldId="3" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{4115444D-2BFB-4ED7-9ED8-B5DDB7490E45}" uniqueName="4" name="Comparisons" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{E7ECE6BD-B3D5-45E4-B970-F621EDE323F2}" uniqueName="5" name="Divisions" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{35105A05-A2CE-40D9-9511-4B6B8A862F29}" uniqueName="6" name="Additions" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{9B9C2D7B-A4F8-4D3E-8A9D-041D7D5BF8AF}" uniqueName="7" name="Solutions" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{10EC8FBB-1BE4-4DD9-B03B-ECEC71A9CFB4}" uniqueName="8" name="Time" queryTableFieldId="8" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{CD50473F-9386-4EE9-8882-299D1821BE43}" uniqueName="9" name="resposta" queryTableFieldId="9" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{10EC8FBB-1BE4-4DD9-B03B-ECEC71A9CFB4}" uniqueName="8" name="Time" queryTableFieldId="8" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{CD50473F-9386-4EE9-8882-299D1821BE43}" uniqueName="9" name="resposta" queryTableFieldId="9" dataDxfId="2"/>
     <tableColumn id="10" xr3:uid="{B050B46E-8F39-420E-9C2D-7D09D536F34A}" uniqueName="10" name="peso" queryTableFieldId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13644,8 +13638,8 @@
     <tableColumn id="5" xr3:uid="{13F33677-3E96-4DAF-AD13-05B2AEF29DDB}" uniqueName="5" name="Divisions" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{B4001EA9-E3DE-419A-B9DA-FF3AD21C5F58}" uniqueName="6" name="Additions" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{59084636-0496-492F-8E0D-9E93273A5E93}" uniqueName="7" name="Solutions" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{A9EC645F-1582-4800-933C-59D42A766407}" uniqueName="8" name="Time" queryTableFieldId="8" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{8EB32FF3-6961-4A05-8101-D6154D3C36B0}" uniqueName="9" name="resposta" queryTableFieldId="9" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{A9EC645F-1582-4800-933C-59D42A766407}" uniqueName="8" name="Time" queryTableFieldId="8" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{8EB32FF3-6961-4A05-8101-D6154D3C36B0}" uniqueName="9" name="resposta" queryTableFieldId="9" dataDxfId="0"/>
     <tableColumn id="10" xr3:uid="{3A8A0931-9FA6-4A5D-8F36-7FCCA15475F1}" uniqueName="10" name="peso" queryTableFieldId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13952,7 +13946,7 @@
   <dimension ref="A1:U102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V98" sqref="V98"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14016,10 +14010,10 @@
       <c r="O1" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="6" t="s">
         <v>470</v>
       </c>
       <c r="S1" t="s">
@@ -14048,10 +14042,10 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2" s="13" t="s">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>10</v>
       </c>
       <c r="J2">
@@ -14060,7 +14054,7 @@
       <c r="M2" s="4">
         <v>58</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="4">
         <v>58</v>
       </c>
       <c r="O2" s="6">
@@ -14093,10 +14087,10 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3">
         <v>9.9992752075195291E-4</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
       <c r="J3">
@@ -14105,7 +14099,7 @@
       <c r="M3" s="7">
         <v>58</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="7">
         <v>16</v>
       </c>
       <c r="O3" s="6">
@@ -14145,10 +14139,10 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4">
         <v>1.0111331939697201E-3</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" t="s">
         <v>399</v>
       </c>
       <c r="J4">
@@ -14157,7 +14151,7 @@
       <c r="M4" s="4">
         <v>25</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="4">
         <v>16</v>
       </c>
       <c r="O4" s="6">
@@ -14197,10 +14191,10 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13" t="s">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
         <v>465</v>
       </c>
       <c r="J5">
@@ -14209,7 +14203,7 @@
       <c r="M5" s="7">
         <v>32</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="7">
         <v>16</v>
       </c>
       <c r="O5" s="6">
@@ -14249,10 +14243,10 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6">
         <v>9.9945068359375E-4</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" t="s">
         <v>399</v>
       </c>
       <c r="J6">
@@ -14261,7 +14255,7 @@
       <c r="M6" s="4">
         <v>25</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="4">
         <v>16</v>
       </c>
       <c r="O6" s="6">
@@ -14301,10 +14295,10 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13" t="s">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
         <v>478</v>
       </c>
       <c r="J7">
@@ -14313,7 +14307,7 @@
       <c r="M7" s="7">
         <v>48</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="7">
         <v>16</v>
       </c>
       <c r="O7" s="6">
@@ -14353,10 +14347,10 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="13" t="s">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
         <v>10</v>
       </c>
       <c r="J8">
@@ -14365,7 +14359,7 @@
       <c r="M8" s="4">
         <v>58</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="4">
         <v>15</v>
       </c>
       <c r="O8" s="6">
@@ -14405,10 +14399,10 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13" t="s">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
         <v>10</v>
       </c>
       <c r="J9">
@@ -14417,7 +14411,7 @@
       <c r="M9" s="7">
         <v>58</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="7">
         <v>15</v>
       </c>
       <c r="O9" s="6">
@@ -14457,10 +14451,10 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10">
         <v>1.0015964508056599E-3</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" t="s">
         <v>400</v>
       </c>
       <c r="J10">
@@ -14469,7 +14463,7 @@
       <c r="M10" s="4">
         <v>28</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="4">
         <v>9</v>
       </c>
       <c r="O10" s="6">
@@ -14509,10 +14503,10 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11" s="13">
-        <v>0</v>
-      </c>
-      <c r="I11" s="13" t="s">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
         <v>479</v>
       </c>
       <c r="J11">
@@ -14521,7 +14515,7 @@
       <c r="M11" s="7">
         <v>53</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="7">
         <v>9</v>
       </c>
       <c r="O11" s="6">
@@ -14561,10 +14555,10 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12" s="13">
-        <v>0</v>
-      </c>
-      <c r="I12" s="13" t="s">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
         <v>477</v>
       </c>
       <c r="J12">
@@ -14573,7 +14567,7 @@
       <c r="M12" s="4">
         <v>68</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="4">
         <v>9</v>
       </c>
       <c r="O12" s="6">
@@ -14613,10 +14607,10 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13" s="13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="13" t="s">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
         <v>466</v>
       </c>
       <c r="J13">
@@ -14625,7 +14619,7 @@
       <c r="M13" s="7">
         <v>15</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="7">
         <v>9</v>
       </c>
       <c r="O13" s="6">
@@ -14665,10 +14659,10 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14">
         <v>1.0025501251220701E-3</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" t="s">
         <v>399</v>
       </c>
       <c r="J14">
@@ -14677,7 +14671,7 @@
       <c r="M14" s="4">
         <v>25</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="4">
         <v>9</v>
       </c>
       <c r="O14" s="6">
@@ -14717,10 +14711,10 @@
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15">
         <v>1.01828575134277E-3</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" t="s">
         <v>480</v>
       </c>
       <c r="J15">
@@ -14729,7 +14723,7 @@
       <c r="M15" s="7">
         <v>84</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="7">
         <v>9</v>
       </c>
       <c r="O15" s="6">
@@ -14769,10 +14763,10 @@
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16" s="13">
-        <v>0</v>
-      </c>
-      <c r="I16" s="13" t="s">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
         <v>481</v>
       </c>
       <c r="J16">
@@ -14781,7 +14775,7 @@
       <c r="M16" s="4">
         <v>85</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="4">
         <v>9</v>
       </c>
       <c r="O16" s="6">
@@ -14821,10 +14815,10 @@
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17" s="13">
-        <v>0</v>
-      </c>
-      <c r="I17" s="13" t="s">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
         <v>482</v>
       </c>
       <c r="J17">
@@ -14833,7 +14827,7 @@
       <c r="M17" s="7">
         <v>66</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="7">
         <v>9</v>
       </c>
       <c r="O17" s="6">
@@ -14873,10 +14867,10 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18" s="13">
-        <v>0</v>
-      </c>
-      <c r="I18" s="13" t="s">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
         <v>483</v>
       </c>
       <c r="J18">
@@ -14885,7 +14879,7 @@
       <c r="M18" s="4">
         <v>70</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="4">
         <v>9</v>
       </c>
       <c r="O18" s="6">
@@ -14928,10 +14922,10 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19" s="13">
-        <v>0</v>
-      </c>
-      <c r="I19" s="13" t="s">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
         <v>400</v>
       </c>
       <c r="J19">
@@ -14940,7 +14934,7 @@
       <c r="M19" s="7">
         <v>28</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="7">
         <v>9</v>
       </c>
       <c r="O19" s="6">
@@ -14984,10 +14978,10 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20" s="13">
-        <v>0</v>
-      </c>
-      <c r="I20" s="13" t="s">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
         <v>400</v>
       </c>
       <c r="J20">
@@ -14996,7 +14990,7 @@
       <c r="M20" s="4">
         <v>28</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="4">
         <v>9</v>
       </c>
       <c r="O20" s="6">
@@ -15036,10 +15030,10 @@
       <c r="G21">
         <v>0</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21">
         <v>2.0275115966796801E-3</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" t="s">
         <v>477</v>
       </c>
       <c r="J21">
@@ -15048,7 +15042,7 @@
       <c r="M21" s="7">
         <v>68</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="7">
         <v>9</v>
       </c>
       <c r="O21" s="6">
@@ -15088,10 +15082,10 @@
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22">
         <v>1.0080337524414E-3</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" t="s">
         <v>467</v>
       </c>
       <c r="J22">
@@ -15100,7 +15094,7 @@
       <c r="M22" s="4">
         <v>4</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="4">
         <v>4</v>
       </c>
       <c r="O22" s="6">
@@ -15140,10 +15134,10 @@
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23">
         <v>9.8919868469238195E-4</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" t="s">
         <v>484</v>
       </c>
       <c r="J23">
@@ -15185,10 +15179,10 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24">
         <v>9.6368789672851497E-4</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" t="s">
         <v>484</v>
       </c>
       <c r="J24">
@@ -15230,10 +15224,10 @@
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25">
         <v>9.8586082458496094E-4</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" t="s">
         <v>407</v>
       </c>
       <c r="J25">
@@ -15275,10 +15269,10 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26">
         <v>1.0023117065429601E-3</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" t="s">
         <v>407</v>
       </c>
       <c r="J26">
@@ -15320,10 +15314,10 @@
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27">
         <v>9.9897384643554601E-4</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="I27" t="s">
         <v>485</v>
       </c>
       <c r="J27">
@@ -15365,10 +15359,10 @@
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28">
         <v>1.007080078125E-3</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I28" t="s">
         <v>467</v>
       </c>
       <c r="J28">
@@ -15410,10 +15404,10 @@
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29">
         <v>9.9730491638183594E-4</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="I29" t="s">
         <v>486</v>
       </c>
       <c r="J29">
@@ -15455,10 +15449,10 @@
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30">
         <v>1.0001659393310499E-3</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="I30" t="s">
         <v>476</v>
       </c>
       <c r="J30">
@@ -15500,10 +15494,10 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31">
         <v>9.9945068359375E-4</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="I31" t="s">
         <v>487</v>
       </c>
       <c r="J31">
@@ -15545,10 +15539,10 @@
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32">
         <v>9.9015235900878906E-4</v>
       </c>
-      <c r="I32" s="13" t="s">
+      <c r="I32" t="s">
         <v>476</v>
       </c>
       <c r="J32">
@@ -15590,10 +15584,10 @@
       <c r="G33">
         <v>0</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33">
         <v>2.0034313201904201E-3</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="I33" t="s">
         <v>10</v>
       </c>
       <c r="J33">
@@ -15635,10 +15629,10 @@
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34">
         <v>9.8943710327148394E-4</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="I34" t="s">
         <v>402</v>
       </c>
       <c r="J34">
@@ -15680,10 +15674,10 @@
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35">
         <v>2.000093460083E-3</v>
       </c>
-      <c r="I35" s="13" t="s">
+      <c r="I35" t="s">
         <v>488</v>
       </c>
       <c r="J35">
@@ -15725,10 +15719,10 @@
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36">
         <v>2.0079612731933498E-3</v>
       </c>
-      <c r="I36" s="13" t="s">
+      <c r="I36" t="s">
         <v>483</v>
       </c>
       <c r="J36">
@@ -15770,10 +15764,10 @@
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37">
         <v>2.9945373535156198E-3</v>
       </c>
-      <c r="I37" s="13" t="s">
+      <c r="I37" t="s">
         <v>489</v>
       </c>
       <c r="J37">
@@ -15815,10 +15809,10 @@
       <c r="G38">
         <v>0</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38">
         <v>1.98602676391601E-3</v>
       </c>
-      <c r="I38" s="13" t="s">
+      <c r="I38" t="s">
         <v>490</v>
       </c>
       <c r="J38">
@@ -15860,10 +15854,10 @@
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39">
         <v>2.000093460083E-3</v>
       </c>
-      <c r="I39" s="13" t="s">
+      <c r="I39" t="s">
         <v>491</v>
       </c>
       <c r="J39">
@@ -15905,10 +15899,10 @@
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40">
         <v>1.9991397857665998E-3</v>
       </c>
-      <c r="I40" s="13" t="s">
+      <c r="I40" t="s">
         <v>492</v>
       </c>
       <c r="J40">
@@ -15950,10 +15944,10 @@
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41">
         <v>3.00073623657226E-3</v>
       </c>
-      <c r="I41" s="13" t="s">
+      <c r="I41" t="s">
         <v>493</v>
       </c>
       <c r="J41">
@@ -15995,10 +15989,10 @@
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42">
         <v>3.0000209808349601E-3</v>
       </c>
-      <c r="I42" s="13" t="s">
+      <c r="I42" t="s">
         <v>493</v>
       </c>
       <c r="J42">
@@ -16040,10 +16034,10 @@
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43">
         <v>2.9976367950439401E-3</v>
       </c>
-      <c r="I43" s="13" t="s">
+      <c r="I43" t="s">
         <v>399</v>
       </c>
       <c r="J43">
@@ -16085,10 +16079,10 @@
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44">
         <v>3.9999485015869097E-3</v>
       </c>
-      <c r="I44" s="13" t="s">
+      <c r="I44" t="s">
         <v>494</v>
       </c>
       <c r="J44">
@@ -16130,10 +16124,10 @@
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H45">
         <v>3.0004978179931602E-3</v>
       </c>
-      <c r="I45" s="13" t="s">
+      <c r="I45" t="s">
         <v>476</v>
       </c>
       <c r="J45">
@@ -16175,10 +16169,10 @@
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46">
         <v>3.9854049682617101E-3</v>
       </c>
-      <c r="I46" s="13" t="s">
+      <c r="I46" t="s">
         <v>495</v>
       </c>
       <c r="J46">
@@ -16220,10 +16214,10 @@
       <c r="G47">
         <v>0</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H47">
         <v>3.0002593994140599E-3</v>
       </c>
-      <c r="I47" s="13" t="s">
+      <c r="I47" t="s">
         <v>496</v>
       </c>
       <c r="J47">
@@ -16265,10 +16259,10 @@
       <c r="G48">
         <v>0</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H48">
         <v>4.0001869201660104E-3</v>
       </c>
-      <c r="I48" s="13" t="s">
+      <c r="I48" t="s">
         <v>497</v>
       </c>
       <c r="J48">
@@ -16310,10 +16304,10 @@
       <c r="G49">
         <v>0</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H49">
         <v>5.00082969665527E-3</v>
       </c>
-      <c r="I49" s="13" t="s">
+      <c r="I49" t="s">
         <v>498</v>
       </c>
       <c r="J49">
@@ -16355,10 +16349,10 @@
       <c r="G50">
         <v>0</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50">
         <v>1.09908580780029E-2</v>
       </c>
-      <c r="I50" s="13" t="s">
+      <c r="I50" t="s">
         <v>489</v>
       </c>
       <c r="J50">
@@ -16400,10 +16394,10 @@
       <c r="G51">
         <v>0</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H51">
         <v>4.0004253387451102E-3</v>
       </c>
-      <c r="I51" s="13" t="s">
+      <c r="I51" t="s">
         <v>499</v>
       </c>
       <c r="J51">
@@ -16444,10 +16438,10 @@
       <c r="G52">
         <v>0</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H52">
         <v>3.9994716644287101E-3</v>
       </c>
-      <c r="I52" s="13" t="s">
+      <c r="I52" t="s">
         <v>500</v>
       </c>
       <c r="J52">
@@ -16488,10 +16482,10 @@
       <c r="G53">
         <v>0</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H53">
         <v>3.9997100830078099E-3</v>
       </c>
-      <c r="I53" s="13" t="s">
+      <c r="I53" t="s">
         <v>490</v>
       </c>
       <c r="J53">
@@ -16532,10 +16526,10 @@
       <c r="G54">
         <v>0</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H54">
         <v>4.9982070922851502E-3</v>
       </c>
-      <c r="I54" s="13" t="s">
+      <c r="I54" t="s">
         <v>501</v>
       </c>
       <c r="J54">
@@ -16576,10 +16570,10 @@
       <c r="G55">
         <v>0</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H55">
         <v>1.09980106353759E-2</v>
       </c>
-      <c r="I55" s="13" t="s">
+      <c r="I55" t="s">
         <v>502</v>
       </c>
       <c r="J55">
@@ -16620,10 +16614,10 @@
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H56">
         <v>5.9983730316162101E-3</v>
       </c>
-      <c r="I56" s="13" t="s">
+      <c r="I56" t="s">
         <v>503</v>
       </c>
       <c r="J56">
@@ -16664,10 +16658,10 @@
       <c r="G57">
         <v>0</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H57">
         <v>5.9983730316162101E-3</v>
       </c>
-      <c r="I57" s="13" t="s">
+      <c r="I57" t="s">
         <v>504</v>
       </c>
       <c r="J57">
@@ -16708,10 +16702,10 @@
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H58">
         <v>8.0006122589111293E-3</v>
       </c>
-      <c r="I58" s="13" t="s">
+      <c r="I58" t="s">
         <v>505</v>
       </c>
       <c r="J58">
@@ -16752,10 +16746,10 @@
       <c r="G59">
         <v>0</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H59">
         <v>6.99973106384277E-3</v>
       </c>
-      <c r="I59" s="13" t="s">
+      <c r="I59" t="s">
         <v>488</v>
       </c>
       <c r="J59">
@@ -16796,10 +16790,10 @@
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H60">
         <v>7.0006847381591797E-3</v>
       </c>
-      <c r="I60" s="13" t="s">
+      <c r="I60" t="s">
         <v>506</v>
       </c>
       <c r="J60">
@@ -16840,10 +16834,10 @@
       <c r="G61">
         <v>0</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H61">
         <v>6.9999694824218698E-3</v>
       </c>
-      <c r="I61" s="13" t="s">
+      <c r="I61" t="s">
         <v>400</v>
       </c>
       <c r="J61">
@@ -16884,10 +16878,10 @@
       <c r="G62">
         <v>0</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H62">
         <v>8.0265998840331997E-3</v>
       </c>
-      <c r="I62" s="13" t="s">
+      <c r="I62" t="s">
         <v>507</v>
       </c>
       <c r="J62">
@@ -16928,10 +16922,10 @@
       <c r="G63">
         <v>0</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H63">
         <v>2.3000001907348602E-2</v>
       </c>
-      <c r="I63" s="13" t="s">
+      <c r="I63" t="s">
         <v>508</v>
       </c>
       <c r="J63">
@@ -16972,10 +16966,10 @@
       <c r="G64">
         <v>0</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H64">
         <v>7.9989433288574201E-3</v>
       </c>
-      <c r="I64" s="13" t="s">
+      <c r="I64" t="s">
         <v>509</v>
       </c>
       <c r="J64">
@@ -17016,10 +17010,10 @@
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="H65" s="13">
+      <c r="H65">
         <v>9.9992752075195295E-3</v>
       </c>
-      <c r="I65" s="13" t="s">
+      <c r="I65" t="s">
         <v>510</v>
       </c>
       <c r="J65">
@@ -17060,10 +17054,10 @@
       <c r="G66">
         <v>0</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H66">
         <v>7.9967975616454991E-3</v>
       </c>
-      <c r="I66" s="13" t="s">
+      <c r="I66" t="s">
         <v>510</v>
       </c>
       <c r="J66">
@@ -17104,10 +17098,10 @@
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="H67" s="13">
+      <c r="H67">
         <v>9.9720954895019497E-3</v>
       </c>
-      <c r="I67" s="13" t="s">
+      <c r="I67" t="s">
         <v>511</v>
       </c>
       <c r="J67">
@@ -17148,10 +17142,10 @@
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="H68" s="13">
+      <c r="H68">
         <v>9.9997520446777292E-3</v>
       </c>
-      <c r="I68" s="13" t="s">
+      <c r="I68" t="s">
         <v>512</v>
       </c>
       <c r="J68">
@@ -17192,10 +17186,10 @@
       <c r="G69">
         <v>0</v>
       </c>
-      <c r="H69" s="13">
+      <c r="H69">
         <v>1.10008716583251E-2</v>
       </c>
-      <c r="I69" s="13" t="s">
+      <c r="I69" t="s">
         <v>476</v>
       </c>
       <c r="J69">
@@ -17236,10 +17230,10 @@
       <c r="G70">
         <v>0</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H70">
         <v>1.10001564025878E-2</v>
       </c>
-      <c r="I70" s="13" t="s">
+      <c r="I70" t="s">
         <v>513</v>
       </c>
       <c r="J70">
@@ -17280,10 +17274,10 @@
       <c r="G71">
         <v>0</v>
       </c>
-      <c r="H71" s="13">
+      <c r="H71">
         <v>1.20074748992919E-2</v>
       </c>
-      <c r="I71" s="13" t="s">
+      <c r="I71" t="s">
         <v>514</v>
       </c>
       <c r="J71">
@@ -17324,10 +17318,10 @@
       <c r="G72">
         <v>0</v>
       </c>
-      <c r="H72" s="13">
+      <c r="H72">
         <v>1.19895935058593E-2</v>
       </c>
-      <c r="I72" s="13" t="s">
+      <c r="I72" t="s">
         <v>515</v>
       </c>
       <c r="J72">
@@ -17368,10 +17362,10 @@
       <c r="G73">
         <v>0</v>
       </c>
-      <c r="H73" s="13">
+      <c r="H73">
         <v>1.6236066818237301E-2</v>
       </c>
-      <c r="I73" s="13" t="s">
+      <c r="I73" t="s">
         <v>399</v>
       </c>
       <c r="J73">
@@ -17412,10 +17406,10 @@
       <c r="G74">
         <v>0</v>
       </c>
-      <c r="H74" s="13">
+      <c r="H74">
         <v>1.49993896484375E-2</v>
       </c>
-      <c r="I74" s="13" t="s">
+      <c r="I74" t="s">
         <v>493</v>
       </c>
       <c r="J74">
@@ -17456,10 +17450,10 @@
       <c r="G75">
         <v>0</v>
       </c>
-      <c r="H75" s="13">
+      <c r="H75">
         <v>1.8996238708496E-2</v>
       </c>
-      <c r="I75" s="13" t="s">
+      <c r="I75" t="s">
         <v>516</v>
       </c>
       <c r="J75">
@@ -17500,10 +17494,10 @@
       <c r="G76">
         <v>0</v>
       </c>
-      <c r="H76" s="13">
+      <c r="H76">
         <v>1.39997005462646E-2</v>
       </c>
-      <c r="I76" s="13" t="s">
+      <c r="I76" t="s">
         <v>517</v>
       </c>
       <c r="J76">
@@ -17544,10 +17538,10 @@
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="H77" s="13">
+      <c r="H77">
         <v>1.39989852905273E-2</v>
       </c>
-      <c r="I77" s="13" t="s">
+      <c r="I77" t="s">
         <v>466</v>
       </c>
       <c r="J77">
@@ -17588,10 +17582,10 @@
       <c r="G78">
         <v>0</v>
       </c>
-      <c r="H78" s="13">
+      <c r="H78">
         <v>2.4637460708618102E-2</v>
       </c>
-      <c r="I78" s="13" t="s">
+      <c r="I78" t="s">
         <v>468</v>
       </c>
       <c r="J78">
@@ -17632,10 +17626,10 @@
       <c r="G79">
         <v>0</v>
       </c>
-      <c r="H79" s="13">
+      <c r="H79">
         <v>1.6027927398681599E-2</v>
       </c>
-      <c r="I79" s="13" t="s">
+      <c r="I79" t="s">
         <v>518</v>
       </c>
       <c r="J79">
@@ -17676,10 +17670,10 @@
       <c r="G80">
         <v>0</v>
       </c>
-      <c r="H80" s="13">
+      <c r="H80">
         <v>1.5639305114746E-2</v>
       </c>
-      <c r="I80" s="13" t="s">
+      <c r="I80" t="s">
         <v>518</v>
       </c>
       <c r="J80">
@@ -17720,10 +17714,10 @@
       <c r="G81">
         <v>0</v>
       </c>
-      <c r="H81" s="13">
+      <c r="H81">
         <v>1.56247615814208E-2</v>
       </c>
-      <c r="I81" s="13" t="s">
+      <c r="I81" t="s">
         <v>488</v>
       </c>
       <c r="J81">
@@ -17764,10 +17758,10 @@
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="H82" s="13">
+      <c r="H82">
         <v>1.5625238418579102E-2</v>
       </c>
-      <c r="I82" s="13" t="s">
+      <c r="I82" t="s">
         <v>519</v>
       </c>
       <c r="J82">
@@ -17808,10 +17802,10 @@
       <c r="G83">
         <v>0</v>
       </c>
-      <c r="H83" s="13">
+      <c r="H83">
         <v>3.1746864318847601E-2</v>
       </c>
-      <c r="I83" s="13" t="s">
+      <c r="I83" t="s">
         <v>514</v>
       </c>
       <c r="J83">
@@ -17852,10 +17846,10 @@
       <c r="G84">
         <v>0</v>
       </c>
-      <c r="H84" s="13">
+      <c r="H84">
         <v>1.56247615814208E-2</v>
       </c>
-      <c r="I84" s="13" t="s">
+      <c r="I84" t="s">
         <v>520</v>
       </c>
       <c r="J84">
@@ -17896,10 +17890,10 @@
       <c r="G85">
         <v>0</v>
       </c>
-      <c r="H85" s="13">
+      <c r="H85">
         <v>1.56424045562744E-2</v>
       </c>
-      <c r="I85" s="13" t="s">
+      <c r="I85" t="s">
         <v>521</v>
       </c>
       <c r="J85">
@@ -17940,10 +17934,10 @@
       <c r="G86">
         <v>0</v>
       </c>
-      <c r="H86" s="13">
+      <c r="H86">
         <v>1.6060352325439401E-2</v>
       </c>
-      <c r="I86" s="13" t="s">
+      <c r="I86" t="s">
         <v>498</v>
       </c>
       <c r="J86">
@@ -17984,10 +17978,10 @@
       <c r="G87">
         <v>0</v>
       </c>
-      <c r="H87" s="13">
+      <c r="H87">
         <v>1.56254768371582E-2</v>
       </c>
-      <c r="I87" s="13" t="s">
+      <c r="I87" t="s">
         <v>522</v>
       </c>
       <c r="J87">
@@ -18028,10 +18022,10 @@
       <c r="G88">
         <v>0</v>
       </c>
-      <c r="H88" s="13">
+      <c r="H88">
         <v>1.56388282775878E-2</v>
       </c>
-      <c r="I88" s="13" t="s">
+      <c r="I88" t="s">
         <v>523</v>
       </c>
       <c r="J88">
@@ -18072,10 +18066,10 @@
       <c r="G89">
         <v>0</v>
       </c>
-      <c r="H89" s="13">
+      <c r="H89">
         <v>1.5637874603271401E-2</v>
       </c>
-      <c r="I89" s="13" t="s">
+      <c r="I89" t="s">
         <v>524</v>
       </c>
       <c r="J89">
@@ -18116,10 +18110,10 @@
       <c r="G90">
         <v>0</v>
       </c>
-      <c r="H90" s="13">
+      <c r="H90">
         <v>1.56493186950683E-2</v>
       </c>
-      <c r="I90" s="13" t="s">
+      <c r="I90" t="s">
         <v>525</v>
       </c>
       <c r="J90">
@@ -18160,10 +18154,10 @@
       <c r="G91">
         <v>0</v>
       </c>
-      <c r="H91" s="13">
+      <c r="H91">
         <v>1.56402587890625E-2</v>
       </c>
-      <c r="I91" s="13" t="s">
+      <c r="I91" t="s">
         <v>514</v>
       </c>
       <c r="J91">
@@ -18204,10 +18198,10 @@
       <c r="G92">
         <v>0</v>
       </c>
-      <c r="H92" s="13">
+      <c r="H92">
         <v>3.1235933303833001E-2</v>
       </c>
-      <c r="I92" s="13" t="s">
+      <c r="I92" t="s">
         <v>514</v>
       </c>
       <c r="J92">
@@ -18248,10 +18242,10 @@
       <c r="G93">
         <v>0</v>
       </c>
-      <c r="H93" s="13">
+      <c r="H93">
         <v>3.125E-2</v>
       </c>
-      <c r="I93" s="13" t="s">
+      <c r="I93" t="s">
         <v>526</v>
       </c>
       <c r="J93">
@@ -18292,10 +18286,10 @@
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="H94" s="13">
+      <c r="H94">
         <v>3.1650304794311503E-2</v>
       </c>
-      <c r="I94" s="13" t="s">
+      <c r="I94" t="s">
         <v>466</v>
       </c>
       <c r="J94">
@@ -18336,10 +18330,10 @@
       <c r="G95">
         <v>0</v>
       </c>
-      <c r="H95" s="13">
+      <c r="H95">
         <v>3.1268596649169901E-2</v>
       </c>
-      <c r="I95" s="13" t="s">
+      <c r="I95" t="s">
         <v>527</v>
       </c>
       <c r="J95">
@@ -18380,10 +18374,10 @@
       <c r="G96">
         <v>0</v>
       </c>
-      <c r="H96" s="13">
+      <c r="H96">
         <v>3.1255960464477497E-2</v>
       </c>
-      <c r="I96" s="13" t="s">
+      <c r="I96" t="s">
         <v>521</v>
       </c>
       <c r="J96">
@@ -18424,10 +18418,10 @@
       <c r="G97">
         <v>0</v>
       </c>
-      <c r="H97" s="13">
+      <c r="H97">
         <v>1.56376361846923E-2</v>
       </c>
-      <c r="I97" s="13" t="s">
+      <c r="I97" t="s">
         <v>525</v>
       </c>
       <c r="J97">
@@ -18468,10 +18462,10 @@
       <c r="G98">
         <v>0</v>
       </c>
-      <c r="H98" s="13">
+      <c r="H98">
         <v>6.2448501586914E-2</v>
       </c>
-      <c r="I98" s="13" t="s">
+      <c r="I98" t="s">
         <v>528</v>
       </c>
       <c r="J98">
@@ -18512,10 +18506,10 @@
       <c r="G99">
         <v>0</v>
       </c>
-      <c r="H99" s="13">
+      <c r="H99">
         <v>3.1267642974853502E-2</v>
       </c>
-      <c r="I99" s="13" t="s">
+      <c r="I99" t="s">
         <v>525</v>
       </c>
       <c r="J99">
@@ -18556,10 +18550,10 @@
       <c r="G100">
         <v>0</v>
       </c>
-      <c r="H100" s="13">
+      <c r="H100">
         <v>5.8165788650512598E-2</v>
       </c>
-      <c r="I100" s="13" t="s">
+      <c r="I100" t="s">
         <v>529</v>
       </c>
       <c r="J100">
@@ -18600,10 +18594,10 @@
       <c r="G101">
         <v>0</v>
       </c>
-      <c r="H101" s="13">
+      <c r="H101">
         <v>4.68771457672119E-2</v>
       </c>
-      <c r="I101" s="13" t="s">
+      <c r="I101" t="s">
         <v>497</v>
       </c>
       <c r="J101">
@@ -18718,10 +18712,10 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2" s="13" t="s">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>10</v>
       </c>
       <c r="J2">
@@ -18730,7 +18724,7 @@
       <c r="N2" s="4">
         <v>58</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="4">
         <v>58</v>
       </c>
       <c r="P2">
@@ -18760,10 +18754,10 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3">
         <v>2.89912223815917E-2</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" t="s">
         <v>11</v>
       </c>
       <c r="J3">
@@ -18772,7 +18766,7 @@
       <c r="N3" s="7">
         <v>74</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="7">
         <v>74</v>
       </c>
       <c r="P3">
@@ -18802,10 +18796,10 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13" t="s">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
         <v>398</v>
       </c>
       <c r="J4">
@@ -18814,7 +18808,7 @@
       <c r="N4" s="4">
         <v>16</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="4">
         <v>16</v>
       </c>
       <c r="P4">
@@ -18844,10 +18838,10 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13" t="s">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
         <v>398</v>
       </c>
       <c r="J5">
@@ -18856,7 +18850,7 @@
       <c r="N5" s="7">
         <v>16</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="7">
         <v>16</v>
       </c>
       <c r="P5">
@@ -18886,10 +18880,10 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6">
         <v>2.88281440734863E-2</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" t="s">
         <v>305</v>
       </c>
       <c r="J6">
@@ -18898,7 +18892,7 @@
       <c r="N6" s="4">
         <v>41</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="4">
         <v>41</v>
       </c>
       <c r="P6">
@@ -18928,10 +18922,10 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13" t="s">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
         <v>476</v>
       </c>
       <c r="J7">
@@ -18940,7 +18934,7 @@
       <c r="N7" s="7">
         <v>54</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="7">
         <v>41</v>
       </c>
       <c r="P7">
@@ -18970,10 +18964,10 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="13" t="s">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
         <v>399</v>
       </c>
       <c r="J8">
@@ -18982,7 +18976,7 @@
       <c r="N8" s="4">
         <v>25</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="4">
         <v>25</v>
       </c>
       <c r="P8">
@@ -19012,10 +19006,10 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9">
         <v>9.8228454589843707E-4</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" t="s">
         <v>400</v>
       </c>
       <c r="J9">
@@ -19024,7 +19018,7 @@
       <c r="N9" s="7">
         <v>28</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="7">
         <v>28</v>
       </c>
       <c r="P9">
@@ -19054,10 +19048,10 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10">
         <v>2.9618501663208001E-2</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" t="s">
         <v>401</v>
       </c>
       <c r="J10">
@@ -19066,7 +19060,7 @@
       <c r="N10" s="4">
         <v>24</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="4">
         <v>24</v>
       </c>
       <c r="P10">
@@ -19096,10 +19090,10 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11">
         <v>3.02982330322265E-2</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" t="s">
         <v>402</v>
       </c>
       <c r="J11">
@@ -19108,7 +19102,7 @@
       <c r="N11" s="7">
         <v>24</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="7">
         <v>24</v>
       </c>
       <c r="P11">
@@ -19138,10 +19132,10 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12">
         <v>3.1320333480834898E-2</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" t="s">
         <v>401</v>
       </c>
       <c r="J12">
@@ -19150,7 +19144,7 @@
       <c r="N12" s="4">
         <v>24</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="4">
         <v>24</v>
       </c>
       <c r="P12">
@@ -19180,10 +19174,10 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13">
         <v>1.0077953338622999E-3</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" t="s">
         <v>398</v>
       </c>
       <c r="J13">
@@ -19192,7 +19186,7 @@
       <c r="N13" s="7">
         <v>16</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="7">
         <v>16</v>
       </c>
       <c r="P13">
@@ -19222,10 +19216,10 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14" s="13">
-        <v>0</v>
-      </c>
-      <c r="I14" s="13" t="s">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
         <v>400</v>
       </c>
       <c r="J14">
@@ -19234,7 +19228,7 @@
       <c r="N14" s="4">
         <v>28</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="4">
         <v>28</v>
       </c>
       <c r="P14">
@@ -19264,10 +19258,10 @@
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15">
         <v>3.5341739654541002E-2</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" t="s">
         <v>403</v>
       </c>
       <c r="J15">
@@ -19276,7 +19270,7 @@
       <c r="N15" s="7">
         <v>31</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="7">
         <v>31</v>
       </c>
       <c r="P15">
@@ -19306,10 +19300,10 @@
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16">
         <v>6.2528848648071206E-2</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" t="s">
         <v>404</v>
       </c>
       <c r="J16">
@@ -19318,7 +19312,7 @@
       <c r="N16" s="4">
         <v>25</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O16" s="4">
         <v>25</v>
       </c>
       <c r="P16">
@@ -19348,10 +19342,10 @@
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17">
         <v>5.63812255859375E-2</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" t="s">
         <v>404</v>
       </c>
       <c r="J17">
@@ -19360,7 +19354,7 @@
       <c r="N17" s="7">
         <v>25</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="7">
         <v>25</v>
       </c>
       <c r="P17">
@@ -19390,10 +19384,10 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18">
         <v>5.9532165527343701E-2</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" t="s">
         <v>404</v>
       </c>
       <c r="J18">
@@ -19402,7 +19396,7 @@
       <c r="N18" s="4">
         <v>25</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="4">
         <v>25</v>
       </c>
       <c r="P18">
@@ -19432,10 +19426,10 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19" s="13">
-        <v>0</v>
-      </c>
-      <c r="I19" s="13" t="s">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
         <v>477</v>
       </c>
       <c r="J19">
@@ -19444,7 +19438,7 @@
       <c r="N19" s="7">
         <v>68</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19" s="7">
         <v>24</v>
       </c>
       <c r="P19">
@@ -19474,10 +19468,10 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20">
         <v>6.5154075622558594E-2</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" t="s">
         <v>405</v>
       </c>
       <c r="J20">
@@ -19486,7 +19480,7 @@
       <c r="N20" s="4">
         <v>33</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="4">
         <v>33</v>
       </c>
       <c r="P20">
@@ -19516,10 +19510,10 @@
       <c r="G21">
         <v>0</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21">
         <v>6.1480760574340799E-2</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" t="s">
         <v>406</v>
       </c>
       <c r="J21">
@@ -19528,7 +19522,7 @@
       <c r="N21" s="7">
         <v>34</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="7">
         <v>34</v>
       </c>
       <c r="P21">
@@ -19558,10 +19552,10 @@
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22">
         <v>6.6849946975707994E-2</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" t="s">
         <v>407</v>
       </c>
       <c r="J22">
@@ -19570,7 +19564,7 @@
       <c r="N22" s="4">
         <v>19</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="4">
         <v>19</v>
       </c>
       <c r="P22">
@@ -19600,10 +19594,10 @@
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23">
         <v>0.115514516830444</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" t="s">
         <v>408</v>
       </c>
       <c r="J23">
@@ -19632,10 +19626,10 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24">
         <v>7.03098773956298E-2</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" t="s">
         <v>409</v>
       </c>
       <c r="J24">
@@ -19664,10 +19658,10 @@
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25">
         <v>6.4925432205200195E-2</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" t="s">
         <v>403</v>
       </c>
       <c r="J25">
@@ -19696,10 +19690,10 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26">
         <v>6.1975955963134703E-2</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" t="s">
         <v>408</v>
       </c>
       <c r="J26">
@@ -19728,10 +19722,10 @@
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27">
         <v>7.6554059982299805E-2</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="I27" t="s">
         <v>410</v>
       </c>
       <c r="J27">
@@ -19760,10 +19754,10 @@
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28">
         <v>7.8490018844604395E-2</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I28" t="s">
         <v>402</v>
       </c>
       <c r="J28">
@@ -19792,10 +19786,10 @@
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29">
         <v>8.5628509521484306E-2</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="I29" t="s">
         <v>408</v>
       </c>
       <c r="J29">
@@ -19824,10 +19818,10 @@
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30">
         <v>8.4757804870605399E-2</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="I30" t="s">
         <v>408</v>
       </c>
       <c r="J30">
@@ -19856,10 +19850,10 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31">
         <v>9.4485998153686496E-2</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="I31" t="s">
         <v>407</v>
       </c>
       <c r="J31">
@@ -19888,10 +19882,10 @@
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32">
         <v>7.8809976577758706E-2</v>
       </c>
-      <c r="I32" s="13" t="s">
+      <c r="I32" t="s">
         <v>407</v>
       </c>
       <c r="J32">
@@ -19920,10 +19914,10 @@
       <c r="G33">
         <v>0</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33">
         <v>8.4592819213867104E-2</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="I33" t="s">
         <v>408</v>
       </c>
       <c r="J33">
@@ -19952,10 +19946,10 @@
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34">
         <v>7.9361677169799805E-2</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="I34" t="s">
         <v>411</v>
       </c>
       <c r="J34">
@@ -19984,10 +19978,10 @@
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35">
         <v>8.3599805831909096E-2</v>
       </c>
-      <c r="I35" s="13" t="s">
+      <c r="I35" t="s">
         <v>412</v>
       </c>
       <c r="J35">
@@ -20016,10 +20010,10 @@
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36">
         <v>8.2626819610595703E-2</v>
       </c>
-      <c r="I36" s="13" t="s">
+      <c r="I36" t="s">
         <v>413</v>
       </c>
       <c r="J36">
@@ -20048,10 +20042,10 @@
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37">
         <v>8.4700107574462793E-2</v>
       </c>
-      <c r="I37" s="13" t="s">
+      <c r="I37" t="s">
         <v>414</v>
       </c>
       <c r="J37">
@@ -20080,10 +20074,10 @@
       <c r="G38">
         <v>0</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38">
         <v>8.9899301528930595E-2</v>
       </c>
-      <c r="I38" s="13" t="s">
+      <c r="I38" t="s">
         <v>415</v>
       </c>
       <c r="J38">
@@ -20112,10 +20106,10 @@
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39">
         <v>0.100185394287109</v>
       </c>
-      <c r="I39" s="13" t="s">
+      <c r="I39" t="s">
         <v>416</v>
       </c>
       <c r="J39">
@@ -20144,10 +20138,10 @@
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40">
         <v>0.115388393402099</v>
       </c>
-      <c r="I40" s="13" t="s">
+      <c r="I40" t="s">
         <v>417</v>
       </c>
       <c r="J40">
@@ -20176,10 +20170,10 @@
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41">
         <v>0.13289523124694799</v>
       </c>
-      <c r="I41" s="13" t="s">
+      <c r="I41" t="s">
         <v>418</v>
       </c>
       <c r="J41">
@@ -20208,10 +20202,10 @@
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42">
         <v>0.16819190979003901</v>
       </c>
-      <c r="I42" s="13" t="s">
+      <c r="I42" t="s">
         <v>419</v>
       </c>
       <c r="J42">
@@ -20240,10 +20234,10 @@
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43">
         <v>0.14145970344543399</v>
       </c>
-      <c r="I43" s="13" t="s">
+      <c r="I43" t="s">
         <v>420</v>
       </c>
       <c r="J43">
@@ -20272,10 +20266,10 @@
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44">
         <v>0.127590656280517</v>
       </c>
-      <c r="I44" s="13" t="s">
+      <c r="I44" t="s">
         <v>421</v>
       </c>
       <c r="J44">
@@ -20304,10 +20298,10 @@
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H45">
         <v>0.113636970520019</v>
       </c>
-      <c r="I45" s="13" t="s">
+      <c r="I45" t="s">
         <v>422</v>
       </c>
       <c r="J45">
@@ -20336,10 +20330,10 @@
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46">
         <v>0.14471769332885701</v>
       </c>
-      <c r="I46" s="13" t="s">
+      <c r="I46" t="s">
         <v>423</v>
       </c>
       <c r="J46">
@@ -20368,10 +20362,10 @@
       <c r="G47">
         <v>0</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H47">
         <v>0.126962184906005</v>
       </c>
-      <c r="I47" s="13" t="s">
+      <c r="I47" t="s">
         <v>423</v>
       </c>
       <c r="J47">
@@ -20400,10 +20394,10 @@
       <c r="G48">
         <v>0</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H48">
         <v>0.129608154296875</v>
       </c>
-      <c r="I48" s="13" t="s">
+      <c r="I48" t="s">
         <v>424</v>
       </c>
       <c r="J48">
@@ -20432,10 +20426,10 @@
       <c r="G49">
         <v>0</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H49">
         <v>0.145241498947143</v>
       </c>
-      <c r="I49" s="13" t="s">
+      <c r="I49" t="s">
         <v>425</v>
       </c>
       <c r="J49">
@@ -20464,10 +20458,10 @@
       <c r="G50">
         <v>0</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50">
         <v>0.13774442672729401</v>
       </c>
-      <c r="I50" s="13" t="s">
+      <c r="I50" t="s">
         <v>426</v>
       </c>
       <c r="J50">
@@ -20496,10 +20490,10 @@
       <c r="G51">
         <v>0</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H51">
         <v>0.14627313613891599</v>
       </c>
-      <c r="I51" s="13" t="s">
+      <c r="I51" t="s">
         <v>427</v>
       </c>
       <c r="J51">
@@ -20528,10 +20522,10 @@
       <c r="G52">
         <v>0</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H52">
         <v>0.17058801651000899</v>
       </c>
-      <c r="I52" s="13" t="s">
+      <c r="I52" t="s">
         <v>408</v>
       </c>
       <c r="J52">
@@ -20560,10 +20554,10 @@
       <c r="G53">
         <v>0</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H53">
         <v>0.15791130065917899</v>
       </c>
-      <c r="I53" s="13" t="s">
+      <c r="I53" t="s">
         <v>428</v>
       </c>
       <c r="J53">
@@ -20592,10 +20586,10 @@
       <c r="G54">
         <v>0</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H54">
         <v>0.15853786468505801</v>
       </c>
-      <c r="I54" s="13" t="s">
+      <c r="I54" t="s">
         <v>408</v>
       </c>
       <c r="J54">
@@ -20624,10 +20618,10 @@
       <c r="G55">
         <v>0</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H55">
         <v>0.16732335090637199</v>
       </c>
-      <c r="I55" s="13" t="s">
+      <c r="I55" t="s">
         <v>429</v>
       </c>
       <c r="J55">
@@ -20656,10 +20650,10 @@
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H56">
         <v>0.16944575309753401</v>
       </c>
-      <c r="I56" s="13" t="s">
+      <c r="I56" t="s">
         <v>430</v>
       </c>
       <c r="J56">
@@ -20688,10 +20682,10 @@
       <c r="G57">
         <v>0</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H57">
         <v>0.18863844871520899</v>
       </c>
-      <c r="I57" s="13" t="s">
+      <c r="I57" t="s">
         <v>431</v>
       </c>
       <c r="J57">
@@ -20720,10 +20714,10 @@
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H58">
         <v>0.210609436035156</v>
       </c>
-      <c r="I58" s="13" t="s">
+      <c r="I58" t="s">
         <v>432</v>
       </c>
       <c r="J58">
@@ -20752,10 +20746,10 @@
       <c r="G59">
         <v>0</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H59">
         <v>0.219613552093505</v>
       </c>
-      <c r="I59" s="13" t="s">
+      <c r="I59" t="s">
         <v>433</v>
       </c>
       <c r="J59">
@@ -20784,10 +20778,10 @@
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H60">
         <v>0.24421811103820801</v>
       </c>
-      <c r="I60" s="13" t="s">
+      <c r="I60" t="s">
         <v>434</v>
       </c>
       <c r="J60">
@@ -20816,10 +20810,10 @@
       <c r="G61">
         <v>0</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H61">
         <v>0.20997500419616699</v>
       </c>
-      <c r="I61" s="13" t="s">
+      <c r="I61" t="s">
         <v>435</v>
       </c>
       <c r="J61">
@@ -20848,10 +20842,10 @@
       <c r="G62">
         <v>0</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H62">
         <v>0.216770410537719</v>
       </c>
-      <c r="I62" s="13" t="s">
+      <c r="I62" t="s">
         <v>436</v>
       </c>
       <c r="J62">
@@ -20880,10 +20874,10 @@
       <c r="G63">
         <v>0</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H63">
         <v>0.219001770019531</v>
       </c>
-      <c r="I63" s="13" t="s">
+      <c r="I63" t="s">
         <v>435</v>
       </c>
       <c r="J63">
@@ -20912,10 +20906,10 @@
       <c r="G64">
         <v>0</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H64">
         <v>0.224997758865356</v>
       </c>
-      <c r="I64" s="13" t="s">
+      <c r="I64" t="s">
         <v>436</v>
       </c>
       <c r="J64">
@@ -20944,10 +20938,10 @@
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="H65" s="13">
+      <c r="H65">
         <v>0.30022048950195301</v>
       </c>
-      <c r="I65" s="13" t="s">
+      <c r="I65" t="s">
         <v>437</v>
       </c>
       <c r="J65">
@@ -20976,10 +20970,10 @@
       <c r="G66">
         <v>0</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H66">
         <v>0.26300001144409102</v>
       </c>
-      <c r="I66" s="13" t="s">
+      <c r="I66" t="s">
         <v>438</v>
       </c>
       <c r="J66">
@@ -21008,10 +21002,10 @@
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="H67" s="13">
+      <c r="H67">
         <v>0.25500035285949701</v>
       </c>
-      <c r="I67" s="13" t="s">
+      <c r="I67" t="s">
         <v>411</v>
       </c>
       <c r="J67">
@@ -21040,10 +21034,10 @@
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="H68" s="13">
+      <c r="H68">
         <v>0.25897431373596103</v>
       </c>
-      <c r="I68" s="13" t="s">
+      <c r="I68" t="s">
         <v>439</v>
       </c>
       <c r="J68">
@@ -21072,10 +21066,10 @@
       <c r="G69">
         <v>0</v>
       </c>
-      <c r="H69" s="13">
+      <c r="H69">
         <v>0.28699994087219199</v>
       </c>
-      <c r="I69" s="13" t="s">
+      <c r="I69" t="s">
         <v>440</v>
       </c>
       <c r="J69">
@@ -21104,10 +21098,10 @@
       <c r="G70">
         <v>0</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H70">
         <v>0.28299975395202598</v>
       </c>
-      <c r="I70" s="13" t="s">
+      <c r="I70" t="s">
         <v>437</v>
       </c>
       <c r="J70">
@@ -21136,10 +21130,10 @@
       <c r="G71">
         <v>0</v>
       </c>
-      <c r="H71" s="13">
+      <c r="H71">
         <v>0.29799962043762201</v>
       </c>
-      <c r="I71" s="13" t="s">
+      <c r="I71" t="s">
         <v>441</v>
       </c>
       <c r="J71">
@@ -21168,10 +21162,10 @@
       <c r="G72">
         <v>0</v>
       </c>
-      <c r="H72" s="13">
+      <c r="H72">
         <v>0.31265974044799799</v>
       </c>
-      <c r="I72" s="13" t="s">
+      <c r="I72" t="s">
         <v>442</v>
       </c>
       <c r="J72">
@@ -21200,10 +21194,10 @@
       <c r="G73">
         <v>0</v>
       </c>
-      <c r="H73" s="13">
+      <c r="H73">
         <v>0.306999921798706</v>
       </c>
-      <c r="I73" s="13" t="s">
+      <c r="I73" t="s">
         <v>426</v>
       </c>
       <c r="J73">
@@ -21232,10 +21226,10 @@
       <c r="G74">
         <v>0</v>
       </c>
-      <c r="H74" s="13">
+      <c r="H74">
         <v>0.30560612678527799</v>
       </c>
-      <c r="I74" s="13" t="s">
+      <c r="I74" t="s">
         <v>443</v>
       </c>
       <c r="J74">
@@ -21264,10 +21258,10 @@
       <c r="G75">
         <v>0</v>
       </c>
-      <c r="H75" s="13">
+      <c r="H75">
         <v>0.34088897705078097</v>
       </c>
-      <c r="I75" s="13" t="s">
+      <c r="I75" t="s">
         <v>444</v>
       </c>
       <c r="J75">
@@ -21296,10 +21290,10 @@
       <c r="G76">
         <v>0</v>
       </c>
-      <c r="H76" s="13">
+      <c r="H76">
         <v>0.37218594551086398</v>
       </c>
-      <c r="I76" s="13" t="s">
+      <c r="I76" t="s">
         <v>445</v>
       </c>
       <c r="J76">
@@ -21328,10 +21322,10 @@
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="H77" s="13">
+      <c r="H77">
         <v>0.37668013572692799</v>
       </c>
-      <c r="I77" s="13" t="s">
+      <c r="I77" t="s">
         <v>446</v>
       </c>
       <c r="J77">
@@ -21360,10 +21354,10 @@
       <c r="G78">
         <v>0</v>
       </c>
-      <c r="H78" s="13">
+      <c r="H78">
         <v>0.40804171562194802</v>
       </c>
-      <c r="I78" s="13" t="s">
+      <c r="I78" t="s">
         <v>447</v>
       </c>
       <c r="J78">
@@ -21392,10 +21386,10 @@
       <c r="G79">
         <v>0</v>
       </c>
-      <c r="H79" s="13">
+      <c r="H79">
         <v>0.430288076400756</v>
       </c>
-      <c r="I79" s="13" t="s">
+      <c r="I79" t="s">
         <v>448</v>
       </c>
       <c r="J79">
@@ -21424,10 +21418,10 @@
       <c r="G80">
         <v>0</v>
       </c>
-      <c r="H80" s="13">
+      <c r="H80">
         <v>0.40799760818481401</v>
       </c>
-      <c r="I80" s="13" t="s">
+      <c r="I80" t="s">
         <v>437</v>
       </c>
       <c r="J80">
@@ -21456,10 +21450,10 @@
       <c r="G81">
         <v>0</v>
       </c>
-      <c r="H81" s="13">
+      <c r="H81">
         <v>0.386765956878662</v>
       </c>
-      <c r="I81" s="13" t="s">
+      <c r="I81" t="s">
         <v>449</v>
       </c>
       <c r="J81">
@@ -21488,10 +21482,10 @@
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="H82" s="13">
+      <c r="H82">
         <v>0.39230155944824202</v>
       </c>
-      <c r="I82" s="13" t="s">
+      <c r="I82" t="s">
         <v>450</v>
       </c>
       <c r="J82">
@@ -21520,10 +21514,10 @@
       <c r="G83">
         <v>0</v>
       </c>
-      <c r="H83" s="13">
+      <c r="H83">
         <v>0.407932758331298</v>
       </c>
-      <c r="I83" s="13" t="s">
+      <c r="I83" t="s">
         <v>451</v>
       </c>
       <c r="J83">
@@ -21552,10 +21546,10 @@
       <c r="G84">
         <v>0</v>
       </c>
-      <c r="H84" s="13">
+      <c r="H84">
         <v>0.40791416168212802</v>
       </c>
-      <c r="I84" s="13" t="s">
+      <c r="I84" t="s">
         <v>437</v>
       </c>
       <c r="J84">
@@ -21584,10 +21578,10 @@
       <c r="G85">
         <v>0</v>
       </c>
-      <c r="H85" s="13">
+      <c r="H85">
         <v>0.454689741134643</v>
       </c>
-      <c r="I85" s="13" t="s">
+      <c r="I85" t="s">
         <v>452</v>
       </c>
       <c r="J85">
@@ -21616,10 +21610,10 @@
       <c r="G86">
         <v>0</v>
       </c>
-      <c r="H86" s="13">
+      <c r="H86">
         <v>0.47078585624694802</v>
       </c>
-      <c r="I86" s="13" t="s">
+      <c r="I86" t="s">
         <v>453</v>
       </c>
       <c r="J86">
@@ -21648,10 +21642,10 @@
       <c r="G87">
         <v>0</v>
       </c>
-      <c r="H87" s="13">
+      <c r="H87">
         <v>0.48657941818237299</v>
       </c>
-      <c r="I87" s="13" t="s">
+      <c r="I87" t="s">
         <v>454</v>
       </c>
       <c r="J87">
@@ -21680,10 +21674,10 @@
       <c r="G88">
         <v>0</v>
       </c>
-      <c r="H88" s="13">
+      <c r="H88">
         <v>0.48540997505187899</v>
       </c>
-      <c r="I88" s="13" t="s">
+      <c r="I88" t="s">
         <v>455</v>
       </c>
       <c r="J88">
@@ -21712,10 +21706,10 @@
       <c r="G89">
         <v>0</v>
       </c>
-      <c r="H89" s="13">
+      <c r="H89">
         <v>0.47593498229980402</v>
       </c>
-      <c r="I89" s="13" t="s">
+      <c r="I89" t="s">
         <v>456</v>
       </c>
       <c r="J89">
@@ -21744,10 +21738,10 @@
       <c r="G90">
         <v>0</v>
       </c>
-      <c r="H90" s="13">
+      <c r="H90">
         <v>0.50206160545349099</v>
       </c>
-      <c r="I90" s="13" t="s">
+      <c r="I90" t="s">
         <v>457</v>
       </c>
       <c r="J90">
@@ -21776,10 +21770,10 @@
       <c r="G91">
         <v>0</v>
       </c>
-      <c r="H91" s="13">
+      <c r="H91">
         <v>0.51717925071716297</v>
       </c>
-      <c r="I91" s="13" t="s">
+      <c r="I91" t="s">
         <v>458</v>
       </c>
       <c r="J91">
@@ -21808,10 +21802,10 @@
       <c r="G92">
         <v>0</v>
       </c>
-      <c r="H92" s="13">
+      <c r="H92">
         <v>0.48093795776367099</v>
       </c>
-      <c r="I92" s="13" t="s">
+      <c r="I92" t="s">
         <v>435</v>
       </c>
       <c r="J92">
@@ -21840,10 +21834,10 @@
       <c r="G93">
         <v>0</v>
       </c>
-      <c r="H93" s="13">
+      <c r="H93">
         <v>0.51717877388000399</v>
       </c>
-      <c r="I93" s="13" t="s">
+      <c r="I93" t="s">
         <v>459</v>
       </c>
       <c r="J93">
@@ -21872,10 +21866,10 @@
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="H94" s="13">
+      <c r="H94">
         <v>0.53377437591552701</v>
       </c>
-      <c r="I94" s="13" t="s">
+      <c r="I94" t="s">
         <v>460</v>
       </c>
       <c r="J94">
@@ -21904,10 +21898,10 @@
       <c r="G95">
         <v>0</v>
       </c>
-      <c r="H95" s="13">
+      <c r="H95">
         <v>0.56453013420104903</v>
       </c>
-      <c r="I95" s="13" t="s">
+      <c r="I95" t="s">
         <v>461</v>
       </c>
       <c r="J95">
@@ -21936,10 +21930,10 @@
       <c r="G96">
         <v>0</v>
       </c>
-      <c r="H96" s="13">
+      <c r="H96">
         <v>0.64314913749694802</v>
       </c>
-      <c r="I96" s="13" t="s">
+      <c r="I96" t="s">
         <v>462</v>
       </c>
       <c r="J96">
@@ -21968,10 +21962,10 @@
       <c r="G97">
         <v>0</v>
       </c>
-      <c r="H97" s="13">
+      <c r="H97">
         <v>0.64312362670898404</v>
       </c>
-      <c r="I97" s="13" t="s">
+      <c r="I97" t="s">
         <v>451</v>
       </c>
       <c r="J97">
@@ -22000,10 +21994,10 @@
       <c r="G98">
         <v>0</v>
       </c>
-      <c r="H98" s="13">
+      <c r="H98">
         <v>0.62750411033630304</v>
       </c>
-      <c r="I98" s="13" t="s">
+      <c r="I98" t="s">
         <v>450</v>
       </c>
       <c r="J98">
@@ -22032,10 +22026,10 @@
       <c r="G99">
         <v>0</v>
       </c>
-      <c r="H99" s="13">
+      <c r="H99">
         <v>0.76853299140930098</v>
       </c>
-      <c r="I99" s="13" t="s">
+      <c r="I99" t="s">
         <v>463</v>
       </c>
       <c r="J99">
@@ -22064,10 +22058,10 @@
       <c r="G100">
         <v>0</v>
       </c>
-      <c r="H100" s="13">
+      <c r="H100">
         <v>0.59571814537048295</v>
       </c>
-      <c r="I100" s="13" t="s">
+      <c r="I100" t="s">
         <v>459</v>
       </c>
       <c r="J100">
@@ -22096,10 +22090,10 @@
       <c r="G101">
         <v>0</v>
       </c>
-      <c r="H101" s="13">
+      <c r="H101">
         <v>0.67541146278381303</v>
       </c>
-      <c r="I101" s="13" t="s">
+      <c r="I101" t="s">
         <v>464</v>
       </c>
       <c r="J101">
@@ -22211,7 +22205,7 @@
       <c r="N2" s="4">
         <v>58</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="4">
         <v>58</v>
       </c>
       <c r="P2">
@@ -22253,7 +22247,7 @@
       <c r="N3" s="7">
         <v>74</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="7">
         <v>74</v>
       </c>
       <c r="P3">
@@ -22295,7 +22289,7 @@
       <c r="N4" s="4">
         <v>74</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="4">
         <v>74</v>
       </c>
       <c r="P4">
@@ -22337,7 +22331,7 @@
       <c r="N5" s="7">
         <v>74</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="7">
         <v>74</v>
       </c>
       <c r="P5">
@@ -22379,7 +22373,7 @@
       <c r="N6" s="4">
         <v>41</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="4">
         <v>41</v>
       </c>
       <c r="P6">
@@ -22421,7 +22415,7 @@
       <c r="N7" s="7">
         <v>82</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="7">
         <v>69</v>
       </c>
       <c r="P7">
@@ -22463,7 +22457,7 @@
       <c r="N8" s="4">
         <v>70</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="4">
         <v>56</v>
       </c>
       <c r="P8">
@@ -22505,7 +22499,7 @@
       <c r="N9" s="7">
         <v>43</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="7">
         <v>43</v>
       </c>
       <c r="P9">
@@ -22547,7 +22541,7 @@
       <c r="N10" s="4">
         <v>41</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="4">
         <v>41</v>
       </c>
       <c r="P10">
@@ -22589,7 +22583,7 @@
       <c r="N11" s="7">
         <v>41</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="7">
         <v>41</v>
       </c>
       <c r="P11">
@@ -22631,7 +22625,7 @@
       <c r="N12" s="4">
         <v>69</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="4">
         <v>49</v>
       </c>
       <c r="P12">
@@ -22673,7 +22667,7 @@
       <c r="N13" s="7">
         <v>40</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="7">
         <v>40</v>
       </c>
       <c r="P13">
@@ -22715,7 +22709,7 @@
       <c r="N14" s="4">
         <v>84</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="4">
         <v>49</v>
       </c>
       <c r="P14">
@@ -22757,7 +22751,7 @@
       <c r="N15" s="7">
         <v>40</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="7">
         <v>40</v>
       </c>
       <c r="P15">
@@ -22799,7 +22793,7 @@
       <c r="N16" s="4">
         <v>117</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O16" s="4">
         <v>71</v>
       </c>
       <c r="P16">
@@ -22841,7 +22835,7 @@
       <c r="N17" s="7">
         <v>122</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="7">
         <v>43</v>
       </c>
       <c r="P17">
@@ -22883,7 +22877,7 @@
       <c r="N18" s="4">
         <v>143</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="4">
         <v>103</v>
       </c>
       <c r="P18">
@@ -22925,7 +22919,7 @@
       <c r="N19" s="7">
         <v>40</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19" s="7">
         <v>40</v>
       </c>
       <c r="P19">
@@ -22967,7 +22961,7 @@
       <c r="N20" s="4">
         <v>49</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="4">
         <v>49</v>
       </c>
       <c r="P20">
@@ -23009,7 +23003,7 @@
       <c r="N21" s="7">
         <v>76</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="7">
         <v>58</v>
       </c>
       <c r="P21">
@@ -23051,7 +23045,7 @@
       <c r="N22" s="4">
         <v>28</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="4">
         <v>28</v>
       </c>
       <c r="P22">
@@ -25692,7 +25686,7 @@
       <c r="M2" s="4">
         <v>58</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="4">
         <v>58</v>
       </c>
       <c r="O2">
@@ -25734,7 +25728,7 @@
       <c r="M3" s="7">
         <v>74</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="7">
         <v>74</v>
       </c>
       <c r="O3">
@@ -25776,7 +25770,7 @@
       <c r="M4" s="4">
         <v>99</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="4">
         <v>99</v>
       </c>
       <c r="O4">
@@ -25818,7 +25812,7 @@
       <c r="M5" s="7">
         <v>106</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="7">
         <v>106</v>
       </c>
       <c r="O5">
@@ -25860,7 +25854,7 @@
       <c r="M6" s="4">
         <v>118</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="4">
         <v>118</v>
       </c>
       <c r="O6">
@@ -25902,7 +25896,7 @@
       <c r="M7" s="7">
         <v>140</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="7">
         <v>140</v>
       </c>
       <c r="O7">
@@ -25944,7 +25938,7 @@
       <c r="M8" s="4">
         <v>112</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="4">
         <v>98</v>
       </c>
       <c r="O8">
@@ -25986,7 +25980,7 @@
       <c r="M9" s="7">
         <v>130</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="7">
         <v>130</v>
       </c>
       <c r="O9">
@@ -26028,7 +26022,7 @@
       <c r="M10" s="4">
         <v>120</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="4">
         <v>111</v>
       </c>
       <c r="O10">
@@ -26070,7 +26064,7 @@
       <c r="M11" s="7">
         <v>138</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="7">
         <v>123</v>
       </c>
       <c r="O11">
@@ -26112,7 +26106,7 @@
       <c r="M12" s="4">
         <v>136</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="4">
         <v>136</v>
       </c>
       <c r="O12">
@@ -26154,7 +26148,7 @@
       <c r="M13" s="7">
         <v>145</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="7">
         <v>119</v>
       </c>
       <c r="O13">
@@ -26196,7 +26190,7 @@
       <c r="M14" s="4">
         <v>172</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="4">
         <v>172</v>
       </c>
       <c r="O14">
@@ -26238,7 +26232,7 @@
       <c r="M15" s="7">
         <v>159</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="7">
         <v>159</v>
       </c>
       <c r="O15">
@@ -26280,7 +26274,7 @@
       <c r="M16" s="4">
         <v>138</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="4">
         <v>138</v>
       </c>
       <c r="O16">
@@ -26322,7 +26316,7 @@
       <c r="M17" s="7">
         <v>130</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="7">
         <v>115</v>
       </c>
       <c r="O17">
@@ -26364,7 +26358,7 @@
       <c r="M18" s="4">
         <v>160</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="4">
         <v>160</v>
       </c>
       <c r="O18">
@@ -26406,7 +26400,7 @@
       <c r="M19" s="7">
         <v>195</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="7">
         <v>172</v>
       </c>
       <c r="O19">
@@ -26448,7 +26442,7 @@
       <c r="M20" s="4">
         <v>163</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="4">
         <v>163</v>
       </c>
       <c r="O20">
@@ -26490,7 +26484,7 @@
       <c r="M21" s="7">
         <v>198</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="7">
         <v>190</v>
       </c>
       <c r="O21">
@@ -26532,7 +26526,7 @@
       <c r="M22" s="4">
         <v>129</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="4">
         <v>129</v>
       </c>
       <c r="O22">
@@ -29174,7 +29168,7 @@
       <c r="M2" s="4">
         <v>58</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="4">
         <v>58</v>
       </c>
       <c r="O2">
@@ -29216,7 +29210,7 @@
       <c r="M3" s="7">
         <v>74</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="7">
         <v>74</v>
       </c>
       <c r="O3">
@@ -29258,7 +29252,7 @@
       <c r="M4" s="4">
         <v>99</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="4">
         <v>99</v>
       </c>
       <c r="O4">
@@ -29300,7 +29294,7 @@
       <c r="M5" s="7">
         <v>131</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="7">
         <v>131</v>
       </c>
       <c r="O5">
@@ -29342,7 +29336,7 @@
       <c r="M6" s="4">
         <v>127</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="4">
         <v>127</v>
       </c>
       <c r="O6">
@@ -29384,7 +29378,7 @@
       <c r="M7" s="7">
         <v>159</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="7">
         <v>159</v>
       </c>
       <c r="O7">
@@ -29426,7 +29420,7 @@
       <c r="M8" s="4">
         <v>116</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="4">
         <v>116</v>
       </c>
       <c r="O8">
@@ -29468,7 +29462,7 @@
       <c r="M9" s="7">
         <v>215</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="7">
         <v>215</v>
       </c>
       <c r="O9">
@@ -29510,7 +29504,7 @@
       <c r="M10" s="4">
         <v>215</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="4">
         <v>199</v>
       </c>
       <c r="O10">
@@ -29552,7 +29546,7 @@
       <c r="M11" s="7">
         <v>221</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="7">
         <v>221</v>
       </c>
       <c r="O11">
@@ -29594,7 +29588,7 @@
       <c r="M12" s="4">
         <v>219</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="4">
         <v>219</v>
       </c>
       <c r="O12">
@@ -29636,7 +29630,7 @@
       <c r="M13" s="7">
         <v>221</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="7">
         <v>221</v>
       </c>
       <c r="O13">
@@ -29678,7 +29672,7 @@
       <c r="M14" s="4">
         <v>262</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="4">
         <v>262</v>
       </c>
       <c r="O14">
@@ -29720,7 +29714,7 @@
       <c r="M15" s="7">
         <v>224</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="7">
         <v>224</v>
       </c>
       <c r="O15">
@@ -29762,7 +29756,7 @@
       <c r="M16" s="4">
         <v>185</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="4">
         <v>185</v>
       </c>
       <c r="O16">
@@ -29804,7 +29798,7 @@
       <c r="M17" s="7">
         <v>225</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="7">
         <v>225</v>
       </c>
       <c r="O17">
@@ -29846,7 +29840,7 @@
       <c r="M18" s="4">
         <v>275</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="4">
         <v>266</v>
       </c>
       <c r="O18">
@@ -29888,7 +29882,7 @@
       <c r="M19" s="7">
         <v>241</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="7">
         <v>241</v>
       </c>
       <c r="O19">
@@ -29930,7 +29924,7 @@
       <c r="M20" s="4">
         <v>342</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="4">
         <v>276</v>
       </c>
       <c r="O20">
@@ -29972,7 +29966,7 @@
       <c r="M21" s="7">
         <v>343</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="7">
         <v>343</v>
       </c>
       <c r="O21">
@@ -30014,7 +30008,7 @@
       <c r="M22" s="4">
         <v>214</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="4">
         <v>206</v>
       </c>
       <c r="O22">
@@ -32563,8 +32557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6692811B-1E1E-4CB0-A84A-9F3E6C2A2006}">
   <dimension ref="A1:Y102"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32630,11 +32624,11 @@
       <c r="P1" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="T1" s="8"/>
-      <c r="U1" s="9" t="s">
+      <c r="T1" s="5"/>
+      <c r="U1" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="6" t="s">
         <v>470</v>
       </c>
       <c r="W1" t="s">
@@ -32675,15 +32669,14 @@
       <c r="N2" s="4">
         <v>58</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="4">
         <v>58</v>
       </c>
       <c r="P2">
         <f xml:space="preserve"> ABS(N2-O2)/O2 * 100</f>
         <v>0</v>
       </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="10"/>
+      <c r="T2" s="5"/>
       <c r="V2" s="3">
         <v>20011</v>
       </c>
@@ -32722,14 +32715,14 @@
       <c r="N3" s="7">
         <v>74</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="7">
         <v>74</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P22" si="0" xml:space="preserve"> ABS(N3-O3)/O3 * 100</f>
         <v>0</v>
       </c>
-      <c r="T3" s="8"/>
+      <c r="T3" s="5"/>
       <c r="U3" s="3">
         <v>20011</v>
       </c>
@@ -32775,14 +32768,14 @@
       <c r="N4" s="4">
         <v>99</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="4">
         <v>99</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T4" s="8"/>
+      <c r="T4" s="5"/>
       <c r="U4" s="6">
         <v>20110</v>
       </c>
@@ -32828,14 +32821,14 @@
       <c r="N5" s="7">
         <v>131</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="7">
         <v>131</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T5" s="8"/>
+      <c r="T5" s="5"/>
       <c r="U5" s="3">
         <v>40209</v>
       </c>
@@ -32881,14 +32874,14 @@
       <c r="N6" s="4">
         <v>159</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="4">
         <v>159</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T6" s="8"/>
+      <c r="T6" s="5"/>
       <c r="U6" s="6">
         <v>60842</v>
       </c>
@@ -32934,14 +32927,14 @@
       <c r="N7" s="7">
         <v>213</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="7">
         <v>213</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T7" s="8"/>
+      <c r="T7" s="5"/>
       <c r="U7" s="3">
         <v>84605</v>
       </c>
@@ -32987,14 +32980,14 @@
       <c r="N8" s="4">
         <v>228</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="4">
         <v>228</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T8" s="8"/>
+      <c r="T8" s="5"/>
       <c r="U8" s="6">
         <v>129786</v>
       </c>
@@ -33040,14 +33033,14 @@
       <c r="N9" s="7">
         <v>313</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="7">
         <v>313</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T9" s="8"/>
+      <c r="T9" s="5"/>
       <c r="U9" s="3">
         <v>380475</v>
       </c>
@@ -33093,14 +33086,14 @@
       <c r="N10" s="4">
         <v>322</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="4">
         <v>322</v>
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T10" s="8"/>
+      <c r="T10" s="5"/>
       <c r="U10" s="6">
         <v>2336822</v>
       </c>
@@ -33146,14 +33139,14 @@
       <c r="N11" s="7">
         <v>390</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="7">
         <v>390</v>
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T11" s="8"/>
+      <c r="T11" s="5"/>
       <c r="U11" s="3">
         <v>6122876</v>
       </c>
@@ -33199,14 +33192,14 @@
       <c r="N12" s="4">
         <v>483</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="4">
         <v>483</v>
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T12" s="8"/>
+      <c r="T12" s="5"/>
       <c r="U12" s="6">
         <v>9256173</v>
       </c>
@@ -33252,14 +33245,14 @@
       <c r="N13" s="7">
         <v>580</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="7">
         <v>580</v>
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T13" s="8"/>
+      <c r="T13" s="5"/>
       <c r="U13" s="3">
         <v>12507809</v>
       </c>
@@ -33305,14 +33298,14 @@
       <c r="N14" s="4">
         <v>650</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="4">
         <v>650</v>
       </c>
       <c r="P14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T14" s="8"/>
+      <c r="T14" s="5"/>
       <c r="U14" s="6">
         <v>16334202</v>
       </c>
@@ -33358,14 +33351,14 @@
       <c r="N15" s="7">
         <v>668</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="7">
         <v>668</v>
       </c>
       <c r="P15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T15" s="8"/>
+      <c r="T15" s="5"/>
       <c r="U15" s="3">
         <v>20890059</v>
       </c>
@@ -33414,14 +33407,14 @@
       <c r="N16" s="4">
         <v>715</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O16" s="4">
         <v>715</v>
       </c>
       <c r="P16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T16" s="8"/>
+      <c r="T16" s="5"/>
       <c r="U16" s="6">
         <v>26303237</v>
       </c>
@@ -33471,14 +33464,14 @@
       <c r="N17" s="7">
         <v>760</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="7">
         <v>760</v>
       </c>
       <c r="P17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T17" s="8"/>
+      <c r="T17" s="5"/>
       <c r="U17" s="3">
         <v>32758024</v>
       </c>
@@ -33524,14 +33517,14 @@
       <c r="N18" s="4">
         <v>820</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="4">
         <v>820</v>
       </c>
       <c r="P18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T18" s="8"/>
+      <c r="T18" s="5"/>
       <c r="U18" s="6">
         <v>41451092</v>
       </c>
@@ -33577,14 +33570,14 @@
       <c r="N19" s="7">
         <v>872</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19" s="7">
         <v>872</v>
       </c>
       <c r="P19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T19" s="8"/>
+      <c r="T19" s="5"/>
       <c r="U19" s="3">
         <v>51020165</v>
       </c>
@@ -33630,14 +33623,14 @@
       <c r="N20" s="4">
         <v>912</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="4">
         <v>912</v>
       </c>
       <c r="P20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T20" s="8"/>
+      <c r="T20" s="5"/>
       <c r="U20" s="6">
         <v>60500338</v>
       </c>
@@ -33683,14 +33676,14 @@
       <c r="N21" s="7">
         <v>1007</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="7">
         <v>1007</v>
       </c>
       <c r="P21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T21" s="8"/>
+      <c r="T21" s="5"/>
       <c r="U21" s="3">
         <v>70890375</v>
       </c>
@@ -33736,14 +33729,14 @@
       <c r="N22" s="4">
         <v>1011</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="4">
         <v>1011</v>
       </c>
       <c r="P22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T22" s="8"/>
+      <c r="T22" s="5"/>
       <c r="U22" s="6">
         <v>82620414</v>
       </c>
@@ -33786,7 +33779,7 @@
       <c r="J23">
         <v>1030</v>
       </c>
-      <c r="T23" s="8"/>
+      <c r="T23" s="5"/>
       <c r="U23" s="3">
         <v>95360455</v>
       </c>
@@ -33829,7 +33822,7 @@
       <c r="J24">
         <v>1068</v>
       </c>
-      <c r="T24" s="8"/>
+      <c r="T24" s="5"/>
       <c r="U24" s="6">
         <v>109580498</v>
       </c>
@@ -33872,7 +33865,7 @@
       <c r="J25">
         <v>1162</v>
       </c>
-      <c r="T25" s="8"/>
+      <c r="T25" s="5"/>
       <c r="U25" s="3">
         <v>124910543</v>
       </c>
@@ -33915,7 +33908,7 @@
       <c r="J26">
         <v>1224</v>
       </c>
-      <c r="T26" s="8"/>
+      <c r="T26" s="5"/>
       <c r="U26" s="6">
         <v>141860590</v>
       </c>
@@ -33958,7 +33951,7 @@
       <c r="J27">
         <v>1278</v>
       </c>
-      <c r="T27" s="8"/>
+      <c r="T27" s="5"/>
       <c r="U27" s="3">
         <v>160020639</v>
       </c>
@@ -34001,7 +33994,7 @@
       <c r="J28">
         <v>1318</v>
       </c>
-      <c r="T28" s="8"/>
+      <c r="T28" s="5"/>
       <c r="U28" s="6">
         <v>179940690</v>
       </c>
@@ -34044,7 +34037,7 @@
       <c r="J29">
         <v>1343</v>
       </c>
-      <c r="T29" s="8"/>
+      <c r="T29" s="5"/>
       <c r="U29" s="3">
         <v>201170743</v>
       </c>
@@ -34087,7 +34080,7 @@
       <c r="J30">
         <v>1421</v>
       </c>
-      <c r="T30" s="8"/>
+      <c r="T30" s="5"/>
       <c r="U30" s="6">
         <v>224300798</v>
       </c>
@@ -34130,7 +34123,7 @@
       <c r="J31">
         <v>1452</v>
       </c>
-      <c r="T31" s="8"/>
+      <c r="T31" s="5"/>
       <c r="U31" s="3">
         <v>248840855</v>
       </c>
@@ -34173,7 +34166,7 @@
       <c r="J32">
         <v>1499</v>
       </c>
-      <c r="T32" s="8"/>
+      <c r="T32" s="5"/>
       <c r="U32" s="6">
         <v>275420914</v>
       </c>
@@ -34216,7 +34209,7 @@
       <c r="J33">
         <v>1549</v>
       </c>
-      <c r="T33" s="8"/>
+      <c r="T33" s="5"/>
       <c r="U33" s="3">
         <v>303510975</v>
       </c>
@@ -34259,7 +34252,7 @@
       <c r="J34">
         <v>1560</v>
       </c>
-      <c r="T34" s="8"/>
+      <c r="T34" s="5"/>
       <c r="U34" s="6">
         <v>333781038</v>
       </c>
@@ -34302,7 +34295,7 @@
       <c r="J35">
         <v>1610</v>
       </c>
-      <c r="T35" s="8"/>
+      <c r="T35" s="5"/>
       <c r="U35" s="3">
         <v>365661103</v>
       </c>
@@ -34345,7 +34338,7 @@
       <c r="J36">
         <v>1645</v>
       </c>
-      <c r="T36" s="8"/>
+      <c r="T36" s="5"/>
       <c r="U36" s="6">
         <v>399861170</v>
       </c>
@@ -34388,7 +34381,7 @@
       <c r="J37">
         <v>1680</v>
       </c>
-      <c r="T37" s="8"/>
+      <c r="T37" s="5"/>
       <c r="U37" s="3">
         <v>435771239</v>
       </c>
@@ -34431,7 +34424,7 @@
       <c r="J38">
         <v>1752</v>
       </c>
-      <c r="T38" s="8"/>
+      <c r="T38" s="5"/>
       <c r="U38" s="6">
         <v>474141310</v>
       </c>
@@ -34474,7 +34467,7 @@
       <c r="J39">
         <v>1821</v>
       </c>
-      <c r="T39" s="8"/>
+      <c r="T39" s="5"/>
       <c r="U39" s="3">
         <v>514321383</v>
       </c>
@@ -34517,7 +34510,7 @@
       <c r="J40">
         <v>1843</v>
       </c>
-      <c r="T40" s="8"/>
+      <c r="T40" s="5"/>
       <c r="U40" s="6">
         <v>557101458</v>
       </c>
@@ -34560,7 +34553,7 @@
       <c r="J41">
         <v>1890</v>
       </c>
-      <c r="T41" s="8"/>
+      <c r="T41" s="5"/>
       <c r="U41" s="3">
         <v>601791535</v>
       </c>
@@ -34603,7 +34596,7 @@
       <c r="J42">
         <v>1976</v>
       </c>
-      <c r="T42" s="8"/>
+      <c r="T42" s="5"/>
       <c r="U42" s="6">
         <v>649221614</v>
       </c>
@@ -34646,7 +34639,7 @@
       <c r="J43">
         <v>2002</v>
       </c>
-      <c r="T43" s="8"/>
+      <c r="T43" s="5"/>
       <c r="U43" s="3">
         <v>698661695</v>
       </c>
@@ -34689,7 +34682,7 @@
       <c r="J44">
         <v>2031</v>
       </c>
-      <c r="T44" s="8"/>
+      <c r="T44" s="5"/>
       <c r="U44" s="6">
         <v>750981778</v>
       </c>
@@ -34732,7 +34725,7 @@
       <c r="J45">
         <v>2095</v>
       </c>
-      <c r="T45" s="8"/>
+      <c r="T45" s="5"/>
       <c r="U45" s="3">
         <v>805411863</v>
       </c>
@@ -34775,7 +34768,7 @@
       <c r="J46">
         <v>2100</v>
       </c>
-      <c r="T46" s="8"/>
+      <c r="T46" s="5"/>
       <c r="U46" s="6">
         <v>862861950</v>
       </c>
@@ -34818,7 +34811,7 @@
       <c r="J47">
         <v>2184</v>
       </c>
-      <c r="T47" s="8"/>
+      <c r="T47" s="5"/>
       <c r="U47" s="3">
         <v>922522039</v>
       </c>
@@ -34861,7 +34854,7 @@
       <c r="J48">
         <v>2283</v>
       </c>
-      <c r="T48" s="8"/>
+      <c r="T48" s="5"/>
       <c r="U48" s="6">
         <v>985342130</v>
       </c>
@@ -34904,7 +34897,7 @@
       <c r="J49">
         <v>2284</v>
       </c>
-      <c r="T49" s="8"/>
+      <c r="T49" s="5"/>
       <c r="U49" s="3">
         <v>1050472223</v>
       </c>
@@ -34947,7 +34940,7 @@
       <c r="J50">
         <v>2305</v>
       </c>
-      <c r="T50" s="8"/>
+      <c r="T50" s="5"/>
       <c r="U50" s="6">
         <v>1118902318</v>
       </c>
@@ -34990,7 +34983,7 @@
       <c r="J51">
         <v>2322</v>
       </c>
-      <c r="T51" s="8"/>
+      <c r="T51" s="5"/>
       <c r="U51" s="3">
         <v>1189742415</v>
       </c>
@@ -35033,7 +35026,7 @@
       <c r="J52">
         <v>2326</v>
       </c>
-      <c r="T52" s="8"/>
+      <c r="T52" s="5"/>
       <c r="U52" s="6">
         <v>1264022514</v>
       </c>
@@ -35076,7 +35069,7 @@
       <c r="J53">
         <v>2396</v>
       </c>
-      <c r="T53" s="8"/>
+      <c r="T53" s="5"/>
       <c r="U53" s="3">
         <v>1340812615</v>
       </c>
@@ -35119,7 +35112,7 @@
       <c r="J54">
         <v>2478</v>
       </c>
-      <c r="T54" s="8"/>
+      <c r="T54" s="5"/>
       <c r="U54" s="6">
         <v>1421182718</v>
       </c>
@@ -35162,7 +35155,7 @@
       <c r="J55">
         <v>2514</v>
       </c>
-      <c r="T55" s="8"/>
+      <c r="T55" s="5"/>
       <c r="U55" s="3">
         <v>1504162823</v>
       </c>
@@ -35205,7 +35198,7 @@
       <c r="J56">
         <v>2596</v>
       </c>
-      <c r="T56" s="8"/>
+      <c r="T56" s="5"/>
       <c r="U56" s="6">
         <v>1590862930</v>
       </c>
@@ -35248,7 +35241,7 @@
       <c r="J57">
         <v>2637</v>
       </c>
-      <c r="T57" s="8"/>
+      <c r="T57" s="5"/>
       <c r="U57" s="3">
         <v>1680273039</v>
       </c>
@@ -35291,7 +35284,7 @@
       <c r="J58">
         <v>2717</v>
       </c>
-      <c r="T58" s="8"/>
+      <c r="T58" s="5"/>
       <c r="U58" s="6">
         <v>1773543150</v>
       </c>
@@ -35334,7 +35327,7 @@
       <c r="J59">
         <v>2813</v>
       </c>
-      <c r="T59" s="8"/>
+      <c r="T59" s="5"/>
       <c r="U59" s="3">
         <v>1869623263</v>
       </c>
@@ -35377,7 +35370,7 @@
       <c r="J60">
         <v>2887</v>
       </c>
-      <c r="T60" s="8"/>
+      <c r="T60" s="5"/>
       <c r="U60" s="6">
         <v>1969703378</v>
       </c>
@@ -35420,7 +35413,7 @@
       <c r="J61">
         <v>2979</v>
       </c>
-      <c r="T61" s="8"/>
+      <c r="T61" s="5"/>
       <c r="U61" s="3">
         <v>2072693495</v>
       </c>
@@ -35463,7 +35456,7 @@
       <c r="J62">
         <v>3023</v>
       </c>
-      <c r="T62" s="8"/>
+      <c r="T62" s="5"/>
       <c r="U62" s="6">
         <v>2179823614</v>
       </c>
@@ -35506,7 +35499,7 @@
       <c r="J63">
         <v>3048</v>
       </c>
-      <c r="T63" s="8"/>
+      <c r="T63" s="5"/>
       <c r="U63" s="3">
         <v>2289963735</v>
       </c>
@@ -35549,7 +35542,7 @@
       <c r="J64">
         <v>3127</v>
       </c>
-      <c r="T64" s="8"/>
+      <c r="T64" s="5"/>
       <c r="U64" s="6">
         <v>2404383858</v>
       </c>
@@ -35592,7 +35585,7 @@
       <c r="J65">
         <v>3150</v>
       </c>
-      <c r="T65" s="8"/>
+      <c r="T65" s="5"/>
       <c r="U65" s="3">
         <v>2521913983</v>
       </c>
@@ -35635,7 +35628,7 @@
       <c r="J66">
         <v>3246</v>
       </c>
-      <c r="T66" s="8"/>
+      <c r="T66" s="5"/>
       <c r="U66" s="6">
         <v>2643864110</v>
       </c>
@@ -35678,7 +35671,7 @@
       <c r="J67">
         <v>3274</v>
       </c>
-      <c r="T67" s="8"/>
+      <c r="T67" s="5"/>
       <c r="U67" s="3">
         <v>2769024239</v>
       </c>
@@ -35721,7 +35714,7 @@
       <c r="J68">
         <v>3369</v>
       </c>
-      <c r="T68" s="8"/>
+      <c r="T68" s="5"/>
       <c r="U68" s="6">
         <v>2898744370</v>
       </c>
@@ -35764,7 +35757,7 @@
       <c r="J69">
         <v>3452</v>
       </c>
-      <c r="T69" s="8"/>
+      <c r="T69" s="5"/>
       <c r="U69" s="3">
         <v>3031774503</v>
       </c>
@@ -35807,7 +35800,7 @@
       <c r="J70">
         <v>3492</v>
       </c>
-      <c r="T70" s="8"/>
+      <c r="T70" s="5"/>
       <c r="U70" s="6">
         <v>3169504638</v>
       </c>
@@ -35850,7 +35843,7 @@
       <c r="J71">
         <v>3576</v>
       </c>
-      <c r="T71" s="8"/>
+      <c r="T71" s="5"/>
       <c r="U71" s="3">
         <v>3310644775</v>
       </c>
@@ -35893,7 +35886,7 @@
       <c r="J72">
         <v>3652</v>
       </c>
-      <c r="T72" s="8"/>
+      <c r="T72" s="5"/>
       <c r="U72" s="6">
         <v>3456624914</v>
       </c>
@@ -35936,7 +35929,7 @@
       <c r="J73">
         <v>3688</v>
       </c>
-      <c r="T73" s="8"/>
+      <c r="T73" s="5"/>
       <c r="U73" s="3">
         <v>3606115055</v>
       </c>
@@ -35979,7 +35972,7 @@
       <c r="J74">
         <v>3702</v>
       </c>
-      <c r="T74" s="8"/>
+      <c r="T74" s="5"/>
       <c r="U74" s="6">
         <v>3760585198</v>
       </c>
@@ -36022,7 +36015,7 @@
       <c r="J75">
         <v>3788</v>
       </c>
-      <c r="T75" s="8"/>
+      <c r="T75" s="5"/>
       <c r="U75" s="3">
         <v>3918665343</v>
       </c>
@@ -36065,7 +36058,7 @@
       <c r="J76">
         <v>3789</v>
       </c>
-      <c r="T76" s="8"/>
+      <c r="T76" s="5"/>
       <c r="U76" s="6">
         <v>4081865490</v>
       </c>
@@ -36108,7 +36101,7 @@
       <c r="J77">
         <v>3813</v>
       </c>
-      <c r="T77" s="8"/>
+      <c r="T77" s="5"/>
       <c r="U77" s="3">
         <v>4248775639</v>
       </c>
@@ -36151,7 +36144,7 @@
       <c r="J78">
         <v>3835</v>
       </c>
-      <c r="T78" s="8"/>
+      <c r="T78" s="5"/>
       <c r="U78" s="6">
         <v>4420945790</v>
       </c>
@@ -36194,7 +36187,7 @@
       <c r="J79">
         <v>3856</v>
       </c>
-      <c r="T79" s="8"/>
+      <c r="T79" s="5"/>
       <c r="U79" s="3">
         <v>4596925943</v>
       </c>
@@ -36237,7 +36230,7 @@
       <c r="J80">
         <v>3906</v>
       </c>
-      <c r="T80" s="8"/>
+      <c r="T80" s="5"/>
       <c r="U80" s="6">
         <v>4778306098</v>
       </c>
@@ -36280,7 +36273,7 @@
       <c r="J81">
         <v>3938</v>
       </c>
-      <c r="T81" s="8"/>
+      <c r="T81" s="5"/>
       <c r="U81" s="3">
         <v>4963596255</v>
       </c>
@@ -36323,7 +36316,7 @@
       <c r="J82">
         <v>4016</v>
       </c>
-      <c r="T82" s="8"/>
+      <c r="T82" s="5"/>
       <c r="U82" s="6">
         <v>5154426414</v>
       </c>
@@ -36366,7 +36359,7 @@
       <c r="J83">
         <v>4107</v>
       </c>
-      <c r="T83" s="8"/>
+      <c r="T83" s="5"/>
       <c r="U83" s="3">
         <v>5349266575</v>
       </c>
@@ -36409,7 +36402,7 @@
       <c r="J84">
         <v>4192</v>
       </c>
-      <c r="T84" s="8"/>
+      <c r="T84" s="5"/>
       <c r="U84" s="6">
         <v>5549786738</v>
       </c>
@@ -36452,7 +36445,7 @@
       <c r="J85">
         <v>4198</v>
       </c>
-      <c r="T85" s="8"/>
+      <c r="T85" s="5"/>
       <c r="U85" s="3">
         <v>5754416903</v>
       </c>
@@ -36495,7 +36488,7 @@
       <c r="J86">
         <v>4289</v>
       </c>
-      <c r="T86" s="8"/>
+      <c r="T86" s="5"/>
       <c r="U86" s="6">
         <v>5964867070</v>
       </c>
@@ -36538,7 +36531,7 @@
       <c r="J87">
         <v>4345</v>
       </c>
-      <c r="T87" s="8"/>
+      <c r="T87" s="5"/>
       <c r="U87" s="3">
         <v>6179527239</v>
       </c>
@@ -36581,7 +36574,7 @@
       <c r="J88">
         <v>4406</v>
       </c>
-      <c r="T88" s="8"/>
+      <c r="T88" s="5"/>
       <c r="U88" s="6">
         <v>6400147410</v>
       </c>
@@ -36624,7 +36617,7 @@
       <c r="J89">
         <v>4439</v>
       </c>
-      <c r="T89" s="8"/>
+      <c r="T89" s="5"/>
       <c r="U89" s="3">
         <v>6625077583</v>
       </c>
@@ -36667,7 +36660,7 @@
       <c r="J90">
         <v>4469</v>
       </c>
-      <c r="T90" s="8"/>
+      <c r="T90" s="5"/>
       <c r="U90" s="6">
         <v>6856107758</v>
       </c>
@@ -36710,7 +36703,7 @@
       <c r="J91">
         <v>4527</v>
       </c>
-      <c r="T91" s="8"/>
+      <c r="T91" s="5"/>
       <c r="U91" s="3">
         <v>7091547935</v>
       </c>
@@ -36753,7 +36746,7 @@
       <c r="J92">
         <v>4554</v>
       </c>
-      <c r="T92" s="8"/>
+      <c r="T92" s="5"/>
       <c r="U92" s="6">
         <v>7333228114</v>
       </c>
@@ -36796,7 +36789,7 @@
       <c r="J93">
         <v>4640</v>
       </c>
-      <c r="T93" s="8"/>
+      <c r="T93" s="5"/>
       <c r="U93" s="3">
         <v>7579418295</v>
       </c>
@@ -36839,7 +36832,7 @@
       <c r="J94">
         <v>4645</v>
       </c>
-      <c r="T94" s="8"/>
+      <c r="T94" s="5"/>
       <c r="U94" s="6">
         <v>7831988478</v>
       </c>
@@ -36882,7 +36875,7 @@
       <c r="J95">
         <v>4676</v>
       </c>
-      <c r="T95" s="8"/>
+      <c r="T95" s="5"/>
       <c r="U95" s="3">
         <v>8089168663</v>
       </c>
@@ -36925,7 +36918,7 @@
       <c r="J96">
         <v>4742</v>
       </c>
-      <c r="T96" s="8"/>
+      <c r="T96" s="5"/>
       <c r="U96" s="6">
         <v>8352868850</v>
       </c>
@@ -36968,7 +36961,7 @@
       <c r="J97">
         <v>4825</v>
       </c>
-      <c r="T97" s="8"/>
+      <c r="T97" s="5"/>
       <c r="U97" s="3">
         <v>8621279039</v>
       </c>
@@ -37011,7 +37004,7 @@
       <c r="J98">
         <v>4853</v>
       </c>
-      <c r="T98" s="8"/>
+      <c r="T98" s="5"/>
       <c r="U98" s="6">
         <v>8896349230</v>
       </c>
@@ -37054,7 +37047,7 @@
       <c r="J99">
         <v>4874</v>
       </c>
-      <c r="T99" s="8"/>
+      <c r="T99" s="5"/>
       <c r="U99" s="3">
         <v>9176229423</v>
       </c>
@@ -37169,7 +37162,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
